--- a/SonarLysaFX/src/test/resources/Tests.xlsx
+++ b/SonarLysaFX/src/test/resources/Tests.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Suivi Qualité" sheetId="38" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Suivi Qualité'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Suivi Qualité'!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Edition</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Date résolution</t>
+  </si>
+  <si>
+    <t>NPC</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,20 +1119,20 @@
     <col min="7" max="7" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1161,46 +1164,49 @@
         <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1">
+  <autoFilter ref="A1:T1">
     <sortState ref="A2:O37">
       <sortCondition ref="I1:I37"/>
     </sortState>

--- a/SonarLysaFX/src/test/resources/Tests.xlsx
+++ b/SonarLysaFX/src/test/resources/Tests.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="2505" windowWidth="22530" windowHeight="11280"/>
   </bookViews>
   <sheets>
-    <sheet name="Suivi Qualité" sheetId="38" r:id="rId1"/>
+    <sheet name="SUIVI Défaults Qualité" sheetId="38" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Suivi Qualité'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'SUIVI Défaults Qualité'!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Edition</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>NPC</t>
+  </si>
+  <si>
+    <t>Date MEP Prév.</t>
+  </si>
+  <si>
+    <t>Durée ano RTC</t>
+  </si>
+  <si>
+    <t>Date réouverture</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,16 +1132,19 @@
     <col min="13" max="13" width="16.28515625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="84" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="84" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1179,34 +1191,43 @@
         <v>22</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1250,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1">
+  <autoFilter ref="A1:W1">
     <sortState ref="A2:O37">
       <sortCondition ref="I1:I37"/>
     </sortState>
